--- a/Fama-macBeth data/Reg_factors_ZI.xlsx
+++ b/Fama-macBeth data/Reg_factors_ZI.xlsx
@@ -408,7 +408,7 @@
         <v>43479</v>
       </c>
       <c r="B2">
-        <v>0.02957337628537253</v>
+        <v>-0.008516137865495821</v>
       </c>
       <c r="C2">
         <v>-0.01251917526438262</v>
@@ -419,7 +419,7 @@
         <v>43486</v>
       </c>
       <c r="B3">
-        <v>-0.004570032534901442</v>
+        <v>-0.007407573580676349</v>
       </c>
       <c r="C3">
         <v>-0.01413281266661803</v>
@@ -430,7 +430,7 @@
         <v>43493</v>
       </c>
       <c r="B4">
-        <v>-0.01939390507745519</v>
+        <v>0.01875094908444055</v>
       </c>
       <c r="C4">
         <v>-0.04817117700556683</v>
@@ -441,7 +441,7 @@
         <v>43500</v>
       </c>
       <c r="B5">
-        <v>-0.007881894640062937</v>
+        <v>-0.006602070652469707</v>
       </c>
       <c r="C5">
         <v>0.05935770132011342</v>
@@ -452,7 +452,7 @@
         <v>43507</v>
       </c>
       <c r="B6">
-        <v>-0.009812562445911331</v>
+        <v>0.0116400175589449</v>
       </c>
       <c r="C6">
         <v>-0.01014009182070874</v>
@@ -463,7 +463,7 @@
         <v>43514</v>
       </c>
       <c r="B7">
-        <v>0.02581551129941483</v>
+        <v>-0.00163706523322385</v>
       </c>
       <c r="C7">
         <v>0.1229274378448899</v>
@@ -474,7 +474,7 @@
         <v>43521</v>
       </c>
       <c r="B8">
-        <v>0.01193524877622949</v>
+        <v>-0.01929707567593932</v>
       </c>
       <c r="C8">
         <v>-0.039123517262034</v>
@@ -485,7 +485,7 @@
         <v>43528</v>
       </c>
       <c r="B9">
-        <v>-0.01729732732560163</v>
+        <v>-0.004643142179256415</v>
       </c>
       <c r="C9">
         <v>0.01164727867997506</v>
@@ -496,7 +496,7 @@
         <v>43535</v>
       </c>
       <c r="B10">
-        <v>0.04711001884278443</v>
+        <v>0.0100832949861584</v>
       </c>
       <c r="C10">
         <v>0.03289475141061859</v>
@@ -507,7 +507,7 @@
         <v>43542</v>
       </c>
       <c r="B11">
-        <v>0.01083560546514112</v>
+        <v>-0.008473915770094074</v>
       </c>
       <c r="C11">
         <v>0.01582984992689696</v>
@@ -518,7 +518,7 @@
         <v>43549</v>
       </c>
       <c r="B12">
-        <v>-0.02196619961746927</v>
+        <v>0.007306798716762148</v>
       </c>
       <c r="C12">
         <v>0.02397423860469527</v>
@@ -529,7 +529,7 @@
         <v>43556</v>
       </c>
       <c r="B13">
-        <v>0.01267512121537139</v>
+        <v>-0.03257955089703709</v>
       </c>
       <c r="C13">
         <v>0.2278253251372364</v>
@@ -540,7 +540,7 @@
         <v>43563</v>
       </c>
       <c r="B14">
-        <v>-0.0428551784809878</v>
+        <v>0.04156861403392605</v>
       </c>
       <c r="C14">
         <v>-0.02368911508427751</v>
@@ -551,7 +551,7 @@
         <v>43570</v>
       </c>
       <c r="B15">
-        <v>-0.005973299933895195</v>
+        <v>-0.006294590996774298</v>
       </c>
       <c r="C15">
         <v>0.04259313684585053</v>
@@ -562,7 +562,7 @@
         <v>43577</v>
       </c>
       <c r="B16">
-        <v>0.02989666025271068</v>
+        <v>0.009922829617604649</v>
       </c>
       <c r="C16">
         <v>-0.05749690981746292</v>
@@ -573,7 +573,7 @@
         <v>43584</v>
       </c>
       <c r="B17">
-        <v>-0.03844241565093155</v>
+        <v>0.02066805069630295</v>
       </c>
       <c r="C17">
         <v>0.09020719571890701</v>
@@ -584,7 +584,7 @@
         <v>43591</v>
       </c>
       <c r="B18">
-        <v>0.00426294706952239</v>
+        <v>0.01598248418532679</v>
       </c>
       <c r="C18">
         <v>0.04158188521423245</v>
@@ -595,7 +595,7 @@
         <v>43598</v>
       </c>
       <c r="B19">
-        <v>-0.0629351110421735</v>
+        <v>0.05410261111169543</v>
       </c>
       <c r="C19">
         <v>0.1727481137869751</v>
@@ -606,7 +606,7 @@
         <v>43605</v>
       </c>
       <c r="B20">
-        <v>-0.003323943421085496</v>
+        <v>-0.0007154228515015675</v>
       </c>
       <c r="C20">
         <v>0.1248564889841088</v>
@@ -617,7 +617,7 @@
         <v>43612</v>
       </c>
       <c r="B21">
-        <v>0.04373891348642163</v>
+        <v>-0.0132037637228437</v>
       </c>
       <c r="C21">
         <v>0.06624136733703323</v>
@@ -628,7 +628,7 @@
         <v>43619</v>
       </c>
       <c r="B22">
-        <v>-0.0191643341307916</v>
+        <v>-0.006222859320068878</v>
       </c>
       <c r="C22">
         <v>-0.05958932362364155</v>
@@ -639,7 +639,7 @@
         <v>43626</v>
       </c>
       <c r="B23">
-        <v>0.02068955393851824</v>
+        <v>-0.01573516024185966</v>
       </c>
       <c r="C23">
         <v>0.04748575953753931</v>
@@ -650,7 +650,7 @@
         <v>43633</v>
       </c>
       <c r="B24">
-        <v>-0.01883290213325022</v>
+        <v>0.03044932602945987</v>
       </c>
       <c r="C24">
         <v>0.1386229975109661</v>
@@ -661,7 +661,7 @@
         <v>43640</v>
       </c>
       <c r="B25">
-        <v>-0.005068798971839489</v>
+        <v>0.001749843299167875</v>
       </c>
       <c r="C25">
         <v>0.1416318296495584</v>
@@ -672,7 +672,7 @@
         <v>43647</v>
       </c>
       <c r="B26">
-        <v>0.02311995682921393</v>
+        <v>-0.01739532343191845</v>
       </c>
       <c r="C26">
         <v>-0.08694350021667907</v>
@@ -683,7 +683,7 @@
         <v>43654</v>
       </c>
       <c r="B27">
-        <v>-0.05142681175547455</v>
+        <v>0.04830182861346603</v>
       </c>
       <c r="C27">
         <v>0.02411265929761353</v>
@@ -694,7 +694,7 @@
         <v>43661</v>
       </c>
       <c r="B28">
-        <v>-0.04242480300146397</v>
+        <v>-0.01292442995967454</v>
       </c>
       <c r="C28">
         <v>-0.1233210971054536</v>
@@ -705,7 +705,7 @@
         <v>43668</v>
       </c>
       <c r="B29">
-        <v>-0.005017114616313104</v>
+        <v>-0.01112491321415398</v>
       </c>
       <c r="C29">
         <v>-0.04491355138561304</v>
@@ -716,7 +716,7 @@
         <v>43675</v>
       </c>
       <c r="B30">
-        <v>0.0134057274942954</v>
+        <v>-0.003412277874753544</v>
       </c>
       <c r="C30">
         <v>0.0303160061166281</v>
@@ -727,7 +727,7 @@
         <v>43682</v>
       </c>
       <c r="B31">
-        <v>-0.04574945578669154</v>
+        <v>0.03182497159409829</v>
       </c>
       <c r="C31">
         <v>0.0845188160859498</v>
@@ -738,7 +738,7 @@
         <v>43689</v>
       </c>
       <c r="B32">
-        <v>-0.01898336031339782</v>
+        <v>-0.0006673615105297105</v>
       </c>
       <c r="C32">
         <v>-0.1150181491900781</v>
@@ -749,7 +749,7 @@
         <v>43696</v>
       </c>
       <c r="B33">
-        <v>-0.05233907858274293</v>
+        <v>0.02613933744783162</v>
       </c>
       <c r="C33">
         <v>0.005455460809083323</v>
@@ -760,7 +760,7 @@
         <v>43703</v>
       </c>
       <c r="B34">
-        <v>-0.0184990013577057</v>
+        <v>0.006832053302475903</v>
       </c>
       <c r="C34">
         <v>-0.0821088605385768</v>
@@ -771,7 +771,7 @@
         <v>43710</v>
       </c>
       <c r="B35">
-        <v>-0.03619196915706589</v>
+        <v>0.0247750168426527</v>
       </c>
       <c r="C35">
         <v>0.05304456578464856</v>
@@ -782,7 +782,7 @@
         <v>43717</v>
       </c>
       <c r="B36">
-        <v>0.007597936090134756</v>
+        <v>0.001324215264686525</v>
       </c>
       <c r="C36">
         <v>0.002334829675001426</v>
@@ -793,7 +793,7 @@
         <v>43724</v>
       </c>
       <c r="B37">
-        <v>0.0009129590676487387</v>
+        <v>-0.002804695917648084</v>
       </c>
       <c r="C37">
         <v>0.02200526514045498</v>
@@ -804,7 +804,7 @@
         <v>43731</v>
       </c>
       <c r="B38">
-        <v>-0.02457144966500743</v>
+        <v>0.009876122231324981</v>
       </c>
       <c r="C38">
         <v>-0.2062461212035153</v>
@@ -815,7 +815,7 @@
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>0.01167639681985584</v>
+        <v>-0.01099010101924031</v>
       </c>
       <c r="C39">
         <v>0.01881721632988809</v>
@@ -826,7 +826,7 @@
         <v>43745</v>
       </c>
       <c r="B40">
-        <v>0.01687359567210386</v>
+        <v>-0.003525805340801373</v>
       </c>
       <c r="C40">
         <v>0.02458626912072459</v>
@@ -837,7 +837,7 @@
         <v>43752</v>
       </c>
       <c r="B41">
-        <v>0.01208746580513133</v>
+        <v>-0.0148235330643304</v>
       </c>
       <c r="C41">
         <v>-0.0359358502148831</v>
@@ -848,7 +848,7 @@
         <v>43759</v>
       </c>
       <c r="B42">
-        <v>-0.0035878703838217</v>
+        <v>-0.01337917963422641</v>
       </c>
       <c r="C42">
         <v>0.07564346383402087</v>
@@ -859,7 +859,7 @@
         <v>43766</v>
       </c>
       <c r="B43">
-        <v>0.02596507035028283</v>
+        <v>-0.01722794906019835</v>
       </c>
       <c r="C43">
         <v>0.06118078815205541</v>
@@ -870,7 +870,7 @@
         <v>43773</v>
       </c>
       <c r="B44">
-        <v>0.01695191736429471</v>
+        <v>0.005742902736657585</v>
       </c>
       <c r="C44">
         <v>-0.02850760817228981</v>
@@ -881,7 +881,7 @@
         <v>43780</v>
       </c>
       <c r="B45">
-        <v>0.01754749011090993</v>
+        <v>-0.01039588678762654</v>
       </c>
       <c r="C45">
         <v>-0.03970217210102645</v>
@@ -892,7 +892,7 @@
         <v>43787</v>
       </c>
       <c r="B46">
-        <v>-0.005933681774088553</v>
+        <v>0.005066684648278606</v>
       </c>
       <c r="C46">
         <v>-0.1397770039316991</v>
@@ -903,7 +903,7 @@
         <v>43794</v>
       </c>
       <c r="B47">
-        <v>-0.006022235483258127</v>
+        <v>0.003562702299615545</v>
       </c>
       <c r="C47">
         <v>0.04073830736757111</v>
@@ -914,7 +914,7 @@
         <v>43801</v>
       </c>
       <c r="B48">
-        <v>-0.01662171934990656</v>
+        <v>-0.002652602573537418</v>
       </c>
       <c r="C48">
         <v>-0.03347621069151985</v>
@@ -925,7 +925,7 @@
         <v>43808</v>
       </c>
       <c r="B49">
-        <v>-0.01211018933899161</v>
+        <v>-0.006702173021413307</v>
       </c>
       <c r="C49">
         <v>-0.02757278687740106</v>
@@ -936,7 +936,7 @@
         <v>43815</v>
       </c>
       <c r="B50">
-        <v>-0.02182972273490486</v>
+        <v>0.002588939379532022</v>
       </c>
       <c r="C50">
         <v>-0.03064463537185669</v>
@@ -947,7 +947,7 @@
         <v>43822</v>
       </c>
       <c r="B51">
-        <v>-0.009409661258121104</v>
+        <v>0.01349975831760029</v>
       </c>
       <c r="C51">
         <v>0.00304734232352466</v>
@@ -958,7 +958,7 @@
         <v>43829</v>
       </c>
       <c r="B52">
-        <v>-0.0004348378807959158</v>
+        <v>-0.003567380327258654</v>
       </c>
       <c r="C52">
         <v>0.01101686985775552</v>
@@ -969,7 +969,7 @@
         <v>43836</v>
       </c>
       <c r="B53">
-        <v>0.01776675780724719</v>
+        <v>0.01561949815429372</v>
       </c>
       <c r="C53">
         <v>0.1030264015986448</v>
@@ -980,7 +980,7 @@
         <v>43843</v>
       </c>
       <c r="B54">
-        <v>-0.007969759077926963</v>
+        <v>0.00253913803075432</v>
       </c>
       <c r="C54">
         <v>0.1501965306676036</v>
@@ -991,7 +991,7 @@
         <v>43850</v>
       </c>
       <c r="B55">
-        <v>0.04352161529339676</v>
+        <v>-0.008727051262805536</v>
       </c>
       <c r="C55">
         <v>-0.05013746454794032</v>
@@ -1002,7 +1002,7 @@
         <v>43857</v>
       </c>
       <c r="B56">
-        <v>0.02837786397847073</v>
+        <v>-0.0006311457232057241</v>
       </c>
       <c r="C56">
         <v>0.1018959314725079</v>
@@ -1013,7 +1013,7 @@
         <v>43864</v>
       </c>
       <c r="B57">
-        <v>0.02295961038633556</v>
+        <v>-0.006246336721394422</v>
       </c>
       <c r="C57">
         <v>0.07528770858065248</v>
@@ -1024,7 +1024,7 @@
         <v>43871</v>
       </c>
       <c r="B58">
-        <v>0.003476149792914048</v>
+        <v>-0.01106136177399467</v>
       </c>
       <c r="C58">
         <v>0.1061998930383681</v>
@@ -1035,7 +1035,7 @@
         <v>43878</v>
       </c>
       <c r="B59">
-        <v>-0.02654980031613936</v>
+        <v>0.0086708673147457</v>
       </c>
       <c r="C59">
         <v>-0.08907042418948818</v>
@@ -1046,7 +1046,7 @@
         <v>43885</v>
       </c>
       <c r="B60">
-        <v>-0.008719349669054632</v>
+        <v>0.01492232858739815</v>
       </c>
       <c r="C60">
         <v>-0.1203420693623434</v>
@@ -1057,7 +1057,7 @@
         <v>43892</v>
       </c>
       <c r="B61">
-        <v>0.02786693801948883</v>
+        <v>-0.01414255710307275</v>
       </c>
       <c r="C61">
         <v>0.05982040740626249</v>
@@ -1068,7 +1068,7 @@
         <v>43899</v>
       </c>
       <c r="B62">
-        <v>-0.01745432732381606</v>
+        <v>-0.006953274668409089</v>
       </c>
       <c r="C62">
         <v>-0.4108664128735892</v>
@@ -1079,7 +1079,7 @@
         <v>43906</v>
       </c>
       <c r="B63">
-        <v>-0.02653155800030682</v>
+        <v>0.009711377993348008</v>
       </c>
       <c r="C63">
         <v>0.1070681095282859</v>
@@ -1090,7 +1090,7 @@
         <v>43913</v>
       </c>
       <c r="B64">
-        <v>-0.02190159100929519</v>
+        <v>0.02468933134502763</v>
       </c>
       <c r="C64">
         <v>0.07440991833316501</v>
@@ -1101,7 +1101,7 @@
         <v>43920</v>
       </c>
       <c r="B65">
-        <v>-0.01793683255089135</v>
+        <v>0.007397250643098471</v>
       </c>
       <c r="C65">
         <v>0.007640639218367662</v>
@@ -1112,7 +1112,7 @@
         <v>43927</v>
       </c>
       <c r="B66">
-        <v>0.02058557407689582</v>
+        <v>0.0120097754514813</v>
       </c>
       <c r="C66">
         <v>0.04053290890008454</v>
@@ -1123,7 +1123,7 @@
         <v>43934</v>
       </c>
       <c r="B67">
-        <v>-0.005777046886035111</v>
+        <v>-0.002489903605162196</v>
       </c>
       <c r="C67">
         <v>0.03525446308566904</v>
@@ -1134,7 +1134,7 @@
         <v>43941</v>
       </c>
       <c r="B68">
-        <v>0.00777393065063723</v>
+        <v>-0.008864784598562672</v>
       </c>
       <c r="C68">
         <v>0.06791186825180229</v>
@@ -1145,7 +1145,7 @@
         <v>43948</v>
       </c>
       <c r="B69">
-        <v>0.01193057185828734</v>
+        <v>0.006713573485652182</v>
       </c>
       <c r="C69">
         <v>0.1424568443996874</v>
@@ -1156,7 +1156,7 @@
         <v>43955</v>
       </c>
       <c r="B70">
-        <v>0.01609794919963602</v>
+        <v>0.001615815274751651</v>
       </c>
       <c r="C70">
         <v>0.1009451843435594</v>
@@ -1167,7 +1167,7 @@
         <v>43962</v>
       </c>
       <c r="B71">
-        <v>0.01019999758296194</v>
+        <v>-0.009247904375394016</v>
       </c>
       <c r="C71">
         <v>-0.05814400283636023</v>
@@ -1178,7 +1178,7 @@
         <v>43969</v>
       </c>
       <c r="B72">
-        <v>0.03142817907515887</v>
+        <v>0.006105489732746281</v>
       </c>
       <c r="C72">
         <v>-0.007331548783467756</v>
@@ -1189,7 +1189,7 @@
         <v>43976</v>
       </c>
       <c r="B73">
-        <v>0.0105707796053008</v>
+        <v>-0.009586225785125142</v>
       </c>
       <c r="C73">
         <v>0.02281874413020879</v>
@@ -1200,7 +1200,7 @@
         <v>43983</v>
       </c>
       <c r="B74">
-        <v>0.01470989734280428</v>
+        <v>0.0198187280397452</v>
       </c>
       <c r="C74">
         <v>0.04342016376342905</v>
@@ -1211,7 +1211,7 @@
         <v>43990</v>
       </c>
       <c r="B75">
-        <v>-0.00482733172685429</v>
+        <v>-0.004585086622441198</v>
       </c>
       <c r="C75">
         <v>-0.02335202835886907</v>
@@ -1222,7 +1222,7 @@
         <v>43997</v>
       </c>
       <c r="B76">
-        <v>0.01314916829508513</v>
+        <v>0.003556870047322566</v>
       </c>
       <c r="C76">
         <v>-0.02172218742831389</v>
@@ -1233,7 +1233,7 @@
         <v>44004</v>
       </c>
       <c r="B77">
-        <v>0.01522269490725319</v>
+        <v>0.01972144129726734</v>
       </c>
       <c r="C77">
         <v>-0.008899726002520203</v>
@@ -1244,7 +1244,7 @@
         <v>44011</v>
       </c>
       <c r="B78">
-        <v>0.02504872519336468</v>
+        <v>-0.005327854003815748</v>
       </c>
       <c r="C78">
         <v>-0.01313682553288886</v>
@@ -1255,7 +1255,7 @@
         <v>44018</v>
       </c>
       <c r="B79">
-        <v>0.02785891839173271</v>
+        <v>-0.01921862596414924</v>
       </c>
       <c r="C79">
         <v>0.05618627802779153</v>
@@ -1266,7 +1266,7 @@
         <v>44025</v>
       </c>
       <c r="B80">
-        <v>-0.02224591926544418</v>
+        <v>0.03722867317577983</v>
       </c>
       <c r="C80">
         <v>-0.1994913477057192</v>
@@ -1277,7 +1277,7 @@
         <v>44060</v>
       </c>
       <c r="B81">
-        <v>-0.01208510440750855</v>
+        <v>0.003598642801527843</v>
       </c>
       <c r="C81">
         <v>0.6193972956372171</v>
@@ -1288,7 +1288,7 @@
         <v>44067</v>
       </c>
       <c r="B82">
-        <v>0.005011644393168528</v>
+        <v>-0.005485755052017885</v>
       </c>
       <c r="C82">
         <v>-0.01165265909106072</v>
@@ -1299,7 +1299,7 @@
         <v>44074</v>
       </c>
       <c r="B83">
-        <v>0.02240661704965801</v>
+        <v>0.009039392418636098</v>
       </c>
       <c r="C83">
         <v>-0.06818556960106825</v>
@@ -1310,7 +1310,7 @@
         <v>44081</v>
       </c>
       <c r="B84">
-        <v>-0.0003315591609176355</v>
+        <v>0.0032935217067777</v>
       </c>
       <c r="C84">
         <v>-0.06207920469610051</v>
@@ -1321,7 +1321,7 @@
         <v>44088</v>
       </c>
       <c r="B85">
-        <v>-0.01390278046896191</v>
+        <v>0.01766344591658493</v>
       </c>
       <c r="C85">
         <v>0.03595584777828664</v>
@@ -1332,7 +1332,7 @@
         <v>44095</v>
       </c>
       <c r="B86">
-        <v>-0.04241829035737531</v>
+        <v>0.01038225350115099</v>
       </c>
       <c r="C86">
         <v>-0.02950432463234465</v>
@@ -1343,7 +1343,7 @@
         <v>44102</v>
       </c>
       <c r="B87">
-        <v>-0.02719155474848911</v>
+        <v>0.004140955278756239</v>
       </c>
       <c r="C87">
         <v>-0.01875704664558386</v>
@@ -1354,7 +1354,7 @@
         <v>44109</v>
       </c>
       <c r="B88">
-        <v>-0.0002850207300171288</v>
+        <v>0.01405834466237775</v>
       </c>
       <c r="C88">
         <v>0.09366856452780792</v>
@@ -1365,7 +1365,7 @@
         <v>44116</v>
       </c>
       <c r="B89">
-        <v>0.02436216606823324</v>
+        <v>0.01116824519012077</v>
       </c>
       <c r="C89">
         <v>-0.02336230751885793</v>
@@ -1376,7 +1376,7 @@
         <v>44123</v>
       </c>
       <c r="B90">
-        <v>-0.008762163368241944</v>
+        <v>0.009717979343736815</v>
       </c>
       <c r="C90">
         <v>0.1256346684534662</v>
@@ -1387,7 +1387,7 @@
         <v>44130</v>
       </c>
       <c r="B91">
-        <v>-0.02011060106503341</v>
+        <v>0.01608286255872652</v>
       </c>
       <c r="C91">
         <v>0.01684480975665048</v>
@@ -1398,7 +1398,7 @@
         <v>44137</v>
       </c>
       <c r="B92">
-        <v>-0.0188244404886579</v>
+        <v>0.009395894470379713</v>
       </c>
       <c r="C92">
         <v>0.1287907383313187</v>
@@ -1409,7 +1409,7 @@
         <v>44144</v>
       </c>
       <c r="B93">
-        <v>0.01667289006029679</v>
+        <v>-0.006941762948870955</v>
       </c>
       <c r="C93">
         <v>0.05591590920498812</v>
@@ -1420,7 +1420,7 @@
         <v>44151</v>
       </c>
       <c r="B94">
-        <v>-0.002703682003569241</v>
+        <v>0.007464735019843238</v>
       </c>
       <c r="C94">
         <v>0.1212231699759518</v>
@@ -1431,7 +1431,7 @@
         <v>44158</v>
       </c>
       <c r="B95">
-        <v>0.04498427948040893</v>
+        <v>-0.04176753734367157</v>
       </c>
       <c r="C95">
         <v>-0.05412493691156139</v>
@@ -1442,7 +1442,7 @@
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>-0.04619345094562503</v>
+        <v>0.02709771874353423</v>
       </c>
       <c r="C96">
         <v>0.09243057377544539</v>
@@ -1453,7 +1453,7 @@
         <v>44172</v>
       </c>
       <c r="B97">
-        <v>-0.02849337834362303</v>
+        <v>-0.009128323706413496</v>
       </c>
       <c r="C97">
         <v>-0.0340723765159221</v>
@@ -1464,7 +1464,7 @@
         <v>44179</v>
       </c>
       <c r="B98">
-        <v>-0.00903618045341946</v>
+        <v>-0.00424659391335642</v>
       </c>
       <c r="C98">
         <v>0.2437533913226435</v>
@@ -1475,7 +1475,7 @@
         <v>44186</v>
       </c>
       <c r="B99">
-        <v>0.002640788017827467</v>
+        <v>-0.00729271256846302</v>
       </c>
       <c r="C99">
         <v>0.003733470520788318</v>
@@ -1486,7 +1486,7 @@
         <v>44193</v>
       </c>
       <c r="B100">
-        <v>0.0235868114740248</v>
+        <v>0.01295090428156794</v>
       </c>
       <c r="C100">
         <v>0.2190965973232359</v>
@@ -1497,7 +1497,7 @@
         <v>44200</v>
       </c>
       <c r="B101">
-        <v>0.05208088866011544</v>
+        <v>-0.01491305176269344</v>
       </c>
       <c r="C101">
         <v>0.4180412828824143</v>
@@ -1508,7 +1508,7 @@
         <v>44207</v>
       </c>
       <c r="B102">
-        <v>0.01542174449988358</v>
+        <v>0.01487740651921922</v>
       </c>
       <c r="C102">
         <v>-0.09141267086976002</v>
@@ -1519,7 +1519,7 @@
         <v>44214</v>
       </c>
       <c r="B103">
-        <v>-0.04712060117054781</v>
+        <v>-0.008961193932099456</v>
       </c>
       <c r="C103">
         <v>-0.1307010034150738</v>
@@ -1530,7 +1530,7 @@
         <v>44221</v>
       </c>
       <c r="B104">
-        <v>-0.01780308935582084</v>
+        <v>0.009946030778413812</v>
       </c>
       <c r="C104">
         <v>0.1629351379175341</v>
@@ -1541,7 +1541,7 @@
         <v>44228</v>
       </c>
       <c r="B105">
-        <v>0.04242310186812038</v>
+        <v>-0.007577552526120725</v>
       </c>
       <c r="C105">
         <v>0.1235408158696178</v>
@@ -1552,7 +1552,7 @@
         <v>44235</v>
       </c>
       <c r="B106">
-        <v>-0.04558477488181342</v>
+        <v>0.06579256340675567</v>
       </c>
       <c r="C106">
         <v>0.2476191778386989</v>
@@ -1563,7 +1563,7 @@
         <v>44242</v>
       </c>
       <c r="B107">
-        <v>0.003332511346352724</v>
+        <v>0.01549645258420513</v>
       </c>
       <c r="C107">
         <v>0.1615926239761127</v>
@@ -1574,7 +1574,7 @@
         <v>44249</v>
       </c>
       <c r="B108">
-        <v>-0.01028470735894382</v>
+        <v>0.004641019772152519</v>
       </c>
       <c r="C108">
         <v>-0.1971994689527899</v>
@@ -1585,7 +1585,7 @@
         <v>44256</v>
       </c>
       <c r="B109">
-        <v>-0.02667815666948654</v>
+        <v>0.0006536000570493278</v>
       </c>
       <c r="C109">
         <v>0.07010765092403681</v>
@@ -1596,7 +1596,7 @@
         <v>44263</v>
       </c>
       <c r="B110">
-        <v>-0.03867709676176247</v>
+        <v>-0.02706063725996846</v>
       </c>
       <c r="C110">
         <v>0.1576677531901665</v>
@@ -1607,7 +1607,7 @@
         <v>44270</v>
       </c>
       <c r="B111">
-        <v>0.02068266916778184</v>
+        <v>-0.02964888095272919</v>
       </c>
       <c r="C111">
         <v>0.03562220711072905</v>
@@ -1618,7 +1618,7 @@
         <v>44277</v>
       </c>
       <c r="B112">
-        <v>-0.03287779920548798</v>
+        <v>0.00306955983933143</v>
       </c>
       <c r="C112">
         <v>-0.06169313922942754</v>
@@ -1629,7 +1629,7 @@
         <v>44284</v>
       </c>
       <c r="B113">
-        <v>-0.01068864861810935</v>
+        <v>0.001770337073902124</v>
       </c>
       <c r="C113">
         <v>0.09731784189278692</v>
@@ -1640,7 +1640,7 @@
         <v>44291</v>
       </c>
       <c r="B114">
-        <v>0.0367939352592347</v>
+        <v>-0.04246391150113198</v>
       </c>
       <c r="C114">
         <v>0.021497823224079</v>
@@ -1651,7 +1651,7 @@
         <v>44298</v>
       </c>
       <c r="B115">
-        <v>0.03531321498543957</v>
+        <v>-0.004827925423847297</v>
       </c>
       <c r="C115">
         <v>0.1302060971860892</v>
@@ -1662,7 +1662,7 @@
         <v>44305</v>
       </c>
       <c r="B116">
-        <v>-0.06518954736079038</v>
+        <v>0.006328335334522128</v>
       </c>
       <c r="C116">
         <v>-0.165388731165922</v>
@@ -1673,7 +1673,7 @@
         <v>44312</v>
       </c>
       <c r="B117">
-        <v>0.06515969370615654</v>
+        <v>-0.03120571776084131</v>
       </c>
       <c r="C117">
         <v>0.1495957846185161</v>
@@ -1684,7 +1684,7 @@
         <v>44319</v>
       </c>
       <c r="B118">
-        <v>0.01894773182084446</v>
+        <v>-0.02886927173715838</v>
       </c>
       <c r="C118">
         <v>0.1014711800097456</v>
@@ -1695,7 +1695,7 @@
         <v>44326</v>
       </c>
       <c r="B119">
-        <v>-0.04078806521022419</v>
+        <v>0.03900265224799127</v>
       </c>
       <c r="C119">
         <v>-0.04630978734800328</v>
@@ -1706,7 +1706,7 @@
         <v>44333</v>
       </c>
       <c r="B120">
-        <v>-0.02556492284657261</v>
+        <v>0.006693895009672338</v>
       </c>
       <c r="C120">
         <v>-0.3358311453530496</v>
@@ -1717,7 +1717,7 @@
         <v>44340</v>
       </c>
       <c r="B121">
-        <v>0.03093895695440041</v>
+        <v>-0.07035119319697125</v>
       </c>
       <c r="C121">
         <v>-0.03321274788374795</v>
@@ -1728,7 +1728,7 @@
         <v>44347</v>
       </c>
       <c r="B122">
-        <v>0.01906854363156991</v>
+        <v>-0.009469948634950806</v>
       </c>
       <c r="C122">
         <v>0.1002092256148983</v>
@@ -1739,7 +1739,7 @@
         <v>44354</v>
       </c>
       <c r="B123">
-        <v>-0.02038908226556761</v>
+        <v>0.01772443912124042</v>
       </c>
       <c r="C123">
         <v>-0.0714375363158094</v>
@@ -1750,7 +1750,7 @@
         <v>44361</v>
       </c>
       <c r="B124">
-        <v>-0.009647151779918098</v>
+        <v>0.006991592084758309</v>
       </c>
       <c r="C124">
         <v>-0.03990933864895385</v>
@@ -1761,7 +1761,7 @@
         <v>44368</v>
       </c>
       <c r="B125">
-        <v>-0.05337282942128532</v>
+        <v>0.076908860251475</v>
       </c>
       <c r="C125">
         <v>-0.1271062147004111</v>
@@ -1772,7 +1772,7 @@
         <v>44375</v>
       </c>
       <c r="B126">
-        <v>-0.000477431917389734</v>
+        <v>-0.03148057015244927</v>
       </c>
       <c r="C126">
         <v>0.05769381061983725</v>
@@ -1783,7 +1783,7 @@
         <v>44382</v>
       </c>
       <c r="B127">
-        <v>0.005161380167961645</v>
+        <v>-0.01342044476021536</v>
       </c>
       <c r="C127">
         <v>0.02552669083919401</v>
@@ -1794,7 +1794,7 @@
         <v>44389</v>
       </c>
       <c r="B128">
-        <v>0.007885347804356672</v>
+        <v>0.0005833462122770555</v>
       </c>
       <c r="C128">
         <v>-0.0892011285562796</v>
@@ -1805,7 +1805,7 @@
         <v>44396</v>
       </c>
       <c r="B129">
-        <v>-0.02159746762129919</v>
+        <v>0.02238539291818435</v>
       </c>
       <c r="C129">
         <v>0.04031742088293844</v>
@@ -1816,7 +1816,7 @@
         <v>44403</v>
       </c>
       <c r="B130">
-        <v>-0.02868817159239535</v>
+        <v>0.02734814610182476</v>
       </c>
       <c r="C130">
         <v>0.2030585737117694</v>
@@ -1827,7 +1827,7 @@
         <v>44410</v>
       </c>
       <c r="B131">
-        <v>0.0133681221858828</v>
+        <v>-0.02022781359137977</v>
       </c>
       <c r="C131">
         <v>0.09018347805347049</v>
@@ -1838,7 +1838,7 @@
         <v>44417</v>
       </c>
       <c r="B132">
-        <v>0.004569023740783898</v>
+        <v>-0.0008599648603325669</v>
       </c>
       <c r="C132">
         <v>0.1363982129085071</v>
@@ -1849,7 +1849,7 @@
         <v>44424</v>
       </c>
       <c r="B133">
-        <v>0.01382097749661723</v>
+        <v>-0.006347565671029754</v>
       </c>
       <c r="C133">
         <v>0.03959193725394061</v>
@@ -1860,7 +1860,7 @@
         <v>44431</v>
       </c>
       <c r="B134">
-        <v>0.03801256577810012</v>
+        <v>-0.01000440014315958</v>
       </c>
       <c r="C134">
         <v>0.001495890098275332</v>
@@ -1871,7 +1871,7 @@
         <v>44438</v>
       </c>
       <c r="B135">
-        <v>-0.04536049242282199</v>
+        <v>0.006857697687014237</v>
       </c>
       <c r="C135">
         <v>0.06036349157714116</v>
@@ -1882,7 +1882,7 @@
         <v>44445</v>
       </c>
       <c r="B136">
-        <v>-0.02911097487232129</v>
+        <v>0.005255704997364583</v>
       </c>
       <c r="C136">
         <v>-0.1299810653654685</v>
@@ -1893,7 +1893,7 @@
         <v>44452</v>
       </c>
       <c r="B137">
-        <v>-0.04518469989279064</v>
+        <v>0.008104996245076622</v>
       </c>
       <c r="C137">
         <v>0.05020368682553067</v>
@@ -1904,7 +1904,7 @@
         <v>44459</v>
       </c>
       <c r="B138">
-        <v>-0.04737223166102142</v>
+        <v>0.03534340195963478</v>
       </c>
       <c r="C138">
         <v>-0.1024891753749331</v>
@@ -1915,7 +1915,7 @@
         <v>44466</v>
       </c>
       <c r="B139">
-        <v>-0.003433083632269431</v>
+        <v>-0.004338206090979537</v>
       </c>
       <c r="C139">
         <v>0.1098048712389494</v>
@@ -1926,7 +1926,7 @@
         <v>44473</v>
       </c>
       <c r="B140">
-        <v>-0.04083245568361589</v>
+        <v>0.01725947014330139</v>
       </c>
       <c r="C140">
         <v>0.101593056843398</v>
@@ -1937,7 +1937,7 @@
         <v>44480</v>
       </c>
       <c r="B141">
-        <v>-0.04812264822549723</v>
+        <v>0.03279113837971145</v>
       </c>
       <c r="C141">
         <v>0.102265266886499</v>
@@ -1948,7 +1948,7 @@
         <v>44487</v>
       </c>
       <c r="B142">
-        <v>-0.01130852781301009</v>
+        <v>-0.0004799526587136793</v>
       </c>
       <c r="C142">
         <v>0.0007183954217535593</v>
@@ -1959,7 +1959,7 @@
         <v>44494</v>
       </c>
       <c r="B143">
-        <v>0.04113990056160607</v>
+        <v>-0.001246695068328807</v>
       </c>
       <c r="C143">
         <v>0.0536990071964587</v>
@@ -1970,7 +1970,7 @@
         <v>44501</v>
       </c>
       <c r="B144">
-        <v>-0.003531083557688822</v>
+        <v>-0.005804996593143606</v>
       </c>
       <c r="C144">
         <v>-0.002275179919582371</v>
@@ -1981,7 +1981,7 @@
         <v>44508</v>
       </c>
       <c r="B145">
-        <v>-0.01116661944026614</v>
+        <v>0.01199648950286099</v>
       </c>
       <c r="C145">
         <v>0.0417142028055868</v>
@@ -1992,7 +1992,7 @@
         <v>44515</v>
       </c>
       <c r="B146">
-        <v>0.0008894862009377058</v>
+        <v>-0.01898082624176242</v>
       </c>
       <c r="C146">
         <v>-0.08742779996916539</v>
@@ -2003,7 +2003,7 @@
         <v>44522</v>
       </c>
       <c r="B147">
-        <v>0.02939802451927196</v>
+        <v>-0.01420265851566151</v>
       </c>
       <c r="C147">
         <v>-0.05407229532616808</v>
@@ -2014,7 +2014,7 @@
         <v>44529</v>
       </c>
       <c r="B148">
-        <v>0.02126996206706595</v>
+        <v>-0.004848308192138457</v>
       </c>
       <c r="C148">
         <v>0.001126935162745868</v>
@@ -2025,7 +2025,7 @@
         <v>44536</v>
       </c>
       <c r="B149">
-        <v>0.02060719135801117</v>
+        <v>-0.0121539086355347</v>
       </c>
       <c r="C149">
         <v>-0.09461590812374676</v>
@@ -2036,7 +2036,7 @@
         <v>44543</v>
       </c>
       <c r="B150">
-        <v>-0.0244817761087797</v>
+        <v>0.02471511868321147</v>
       </c>
       <c r="C150">
         <v>-0.04015650211288502</v>
@@ -2047,7 +2047,7 @@
         <v>44550</v>
       </c>
       <c r="B151">
-        <v>0.006303986039461467</v>
+        <v>0.013696516542053</v>
       </c>
       <c r="C151">
         <v>0.09294163012421053</v>
@@ -2058,7 +2058,7 @@
         <v>44557</v>
       </c>
       <c r="B152">
-        <v>0.004915764333812507</v>
+        <v>-0.001161189298349244</v>
       </c>
       <c r="C152">
         <v>-0.1018151188457243</v>
@@ -2069,7 +2069,7 @@
         <v>44564</v>
       </c>
       <c r="B153">
-        <v>0.007694804821448444</v>
+        <v>-0.01029519253938599</v>
       </c>
       <c r="C153">
         <v>-0.108959649497398</v>
@@ -2080,7 +2080,7 @@
         <v>44571</v>
       </c>
       <c r="B154">
-        <v>-0.007173814277036139</v>
+        <v>0.02271649138888085</v>
       </c>
       <c r="C154">
         <v>-0.00140005302323476</v>
@@ -2091,7 +2091,7 @@
         <v>44578</v>
       </c>
       <c r="B155">
-        <v>0.03813508871944257</v>
+        <v>0.02046891464651004</v>
       </c>
       <c r="C155">
         <v>-0.1751801776898438</v>
@@ -2102,7 +2102,7 @@
         <v>44585</v>
       </c>
       <c r="B156">
-        <v>-0.03552566644789396</v>
+        <v>0.03021192204320081</v>
       </c>
       <c r="C156">
         <v>0.006031746280749983</v>
@@ -2113,7 +2113,7 @@
         <v>44592</v>
       </c>
       <c r="B157">
-        <v>0.007480773689555669</v>
+        <v>-0.00813974357840264</v>
       </c>
       <c r="C157">
         <v>0.09687525892673055</v>
@@ -2124,7 +2124,7 @@
         <v>44599</v>
       </c>
       <c r="B158">
-        <v>0.007568718138271396</v>
+        <v>-0.008737389114833072</v>
       </c>
       <c r="C158">
         <v>0.03077553452691406</v>
@@ -2135,7 +2135,7 @@
         <v>44606</v>
       </c>
       <c r="B159">
-        <v>0.008709646737498822</v>
+        <v>0.004137356707722872</v>
       </c>
       <c r="C159">
         <v>-0.05557106062310058</v>
@@ -2146,7 +2146,7 @@
         <v>44613</v>
       </c>
       <c r="B160">
-        <v>-0.04520286381878545</v>
+        <v>0.02518490807414902</v>
       </c>
       <c r="C160">
         <v>-0.03192226223981875</v>
@@ -2157,7 +2157,7 @@
         <v>44620</v>
       </c>
       <c r="B161">
-        <v>-0.0118841412487979</v>
+        <v>0.03138980979096515</v>
       </c>
       <c r="C161">
         <v>-0.003265681586583136</v>
@@ -2168,7 +2168,7 @@
         <v>44627</v>
       </c>
       <c r="B162">
-        <v>-0.01179270911803566</v>
+        <v>-0.006149639380600653</v>
       </c>
       <c r="C162">
         <v>-0.01730288090132814</v>
@@ -2179,7 +2179,7 @@
         <v>44634</v>
       </c>
       <c r="B163">
-        <v>-0.02182871825205106</v>
+        <v>0.01708941635033415</v>
       </c>
       <c r="C163">
         <v>0.09058705480803186</v>
@@ -2190,7 +2190,7 @@
         <v>44641</v>
       </c>
       <c r="B164">
-        <v>0.02921706534986761</v>
+        <v>-0.01743661613583422</v>
       </c>
       <c r="C164">
         <v>0.0709528669452415</v>
@@ -2201,7 +2201,7 @@
         <v>44648</v>
       </c>
       <c r="B165">
-        <v>-0.01879482983902043</v>
+        <v>0.007966479015188571</v>
       </c>
       <c r="C165">
         <v>0.06623339136655537</v>
@@ -2212,7 +2212,7 @@
         <v>44655</v>
       </c>
       <c r="B166">
-        <v>0.002161697069182146</v>
+        <v>0.01600167534545404</v>
       </c>
       <c r="C166">
         <v>-0.07519053074293214</v>
@@ -2223,7 +2223,7 @@
         <v>44662</v>
       </c>
       <c r="B167">
-        <v>-0.01455244184206436</v>
+        <v>0.01298281067847139</v>
       </c>
       <c r="C167">
         <v>-0.0584598116830517</v>
@@ -2234,7 +2234,7 @@
         <v>44669</v>
       </c>
       <c r="B168">
-        <v>0.002196873400825593</v>
+        <v>0.004053325684804689</v>
       </c>
       <c r="C168">
         <v>-0.02028538123079981</v>
@@ -2245,7 +2245,7 @@
         <v>44676</v>
       </c>
       <c r="B169">
-        <v>-0.02001060641574721</v>
+        <v>-0.006833524233391168</v>
       </c>
       <c r="C169">
         <v>-0.03849384879777396</v>
@@ -2256,7 +2256,7 @@
         <v>44683</v>
       </c>
       <c r="B170">
-        <v>0.0007127639036107873</v>
+        <v>0.002324740771176849</v>
       </c>
       <c r="C170">
         <v>-0.06004789900952934</v>
@@ -2267,7 +2267,7 @@
         <v>44690</v>
       </c>
       <c r="B171">
-        <v>-0.05156710978511622</v>
+        <v>0.03004701616756215</v>
       </c>
       <c r="C171">
         <v>-0.1967061918300405</v>
@@ -2278,7 +2278,7 @@
         <v>44697</v>
       </c>
       <c r="B172">
-        <v>-0.03499501144989187</v>
+        <v>0.01260857726295502</v>
       </c>
       <c r="C172">
         <v>-0.03290848915365319</v>
@@ -2289,7 +2289,7 @@
         <v>44704</v>
       </c>
       <c r="B173">
-        <v>-0.0274769046829924</v>
+        <v>-0.003600842655342974</v>
       </c>
       <c r="C173">
         <v>-0.03774631078741275</v>
@@ -2300,7 +2300,7 @@
         <v>44711</v>
       </c>
       <c r="B174">
-        <v>0.03679012213560877</v>
+        <v>-0.005967634903888949</v>
       </c>
       <c r="C174">
         <v>0.02522239115934255</v>
@@ -2311,7 +2311,7 @@
         <v>44718</v>
       </c>
       <c r="B175">
-        <v>0.01812667747993426</v>
+        <v>0.01397195340407342</v>
       </c>
       <c r="C175">
         <v>-0.02130380176258639</v>
@@ -2322,7 +2322,7 @@
         <v>44725</v>
       </c>
       <c r="B176">
-        <v>0.07613137240279078</v>
+        <v>-0.03274101400907459</v>
       </c>
       <c r="C176">
         <v>-0.3024387176054888</v>
@@ -2333,7 +2333,7 @@
         <v>44732</v>
       </c>
       <c r="B177">
-        <v>0.02413562653376522</v>
+        <v>-0.0264315609319286</v>
       </c>
       <c r="C177">
         <v>0.05506102470446361</v>
@@ -2344,7 +2344,7 @@
         <v>44739</v>
       </c>
       <c r="B178">
-        <v>0.001532003163092543</v>
+        <v>-0.02155604693467086</v>
       </c>
       <c r="C178">
         <v>-0.08934224510715116</v>
@@ -2355,7 +2355,7 @@
         <v>44746</v>
       </c>
       <c r="B179">
-        <v>-0.003151012552184897</v>
+        <v>0.009892710161935964</v>
       </c>
       <c r="C179">
         <v>0.1218458756942842</v>
@@ -2366,7 +2366,7 @@
         <v>44753</v>
       </c>
       <c r="B180">
-        <v>-0.02375938734837965</v>
+        <v>0.01172424524561886</v>
       </c>
       <c r="C180">
         <v>-0.02875379617775276</v>
@@ -2377,7 +2377,7 @@
         <v>44760</v>
       </c>
       <c r="B181">
-        <v>0.0224810362019751</v>
+        <v>0.01181131647852048</v>
       </c>
       <c r="C181">
         <v>0.111823093520679</v>
@@ -2388,7 +2388,7 @@
         <v>44767</v>
       </c>
       <c r="B182">
-        <v>-0.02915151834225926</v>
+        <v>0.01005424385565248</v>
       </c>
       <c r="C182">
         <v>0.08126128369544916</v>
@@ -2399,7 +2399,7 @@
         <v>44774</v>
       </c>
       <c r="B183">
-        <v>0.009172947009343331</v>
+        <v>-0.00327607881921049</v>
       </c>
       <c r="C183">
         <v>-0.03272440640087448</v>
@@ -2410,7 +2410,7 @@
         <v>44781</v>
       </c>
       <c r="B184">
-        <v>0.0003078435375905089</v>
+        <v>0.003473699760292961</v>
       </c>
       <c r="C184">
         <v>0.07725603296258621</v>
@@ -2421,7 +2421,7 @@
         <v>44788</v>
       </c>
       <c r="B185">
-        <v>-0.01279687809931825</v>
+        <v>0.008813036630791769</v>
       </c>
       <c r="C185">
         <v>-0.1210179695375699</v>
@@ -2432,7 +2432,7 @@
         <v>44795</v>
       </c>
       <c r="B186">
-        <v>-0.005247887808259855</v>
+        <v>-0.006405916882635339</v>
       </c>
       <c r="C186">
         <v>-0.0395201321955736</v>
@@ -2443,7 +2443,7 @@
         <v>44802</v>
       </c>
       <c r="B187">
-        <v>0.006756259003972413</v>
+        <v>-0.01241069527389012</v>
       </c>
       <c r="C187">
         <v>-0.02465923392933977</v>
@@ -2454,7 +2454,7 @@
         <v>44809</v>
       </c>
       <c r="B188">
-        <v>0.0004102569107112145</v>
+        <v>-0.01509593482537173</v>
       </c>
       <c r="C188">
         <v>0.07916970839537774</v>
@@ -2465,7 +2465,7 @@
         <v>44816</v>
       </c>
       <c r="B189">
-        <v>-0.00556032999375955</v>
+        <v>0.01909224048746528</v>
       </c>
       <c r="C189">
         <v>-0.099893030389689</v>
@@ -2476,7 +2476,7 @@
         <v>44823</v>
       </c>
       <c r="B190">
-        <v>0.01343784091507532</v>
+        <v>-0.003510960875877829</v>
       </c>
       <c r="C190">
         <v>-0.05401051335312224</v>
@@ -2487,7 +2487,7 @@
         <v>44830</v>
       </c>
       <c r="B191">
-        <v>-0.01976334919267916</v>
+        <v>0.006279273069692524</v>
       </c>
       <c r="C191">
         <v>0.02042732404477521</v>
@@ -2498,7 +2498,7 @@
         <v>44837</v>
       </c>
       <c r="B192">
-        <v>-0.005713476465086492</v>
+        <v>0.006333160628293963</v>
       </c>
       <c r="C192">
         <v>0.004516397487293711</v>
@@ -2509,7 +2509,7 @@
         <v>44844</v>
       </c>
       <c r="B193">
-        <v>-0.02851128066921537</v>
+        <v>0.01578529161840986</v>
       </c>
       <c r="C193">
         <v>-0.02652771990270186</v>
@@ -2520,7 +2520,7 @@
         <v>44851</v>
       </c>
       <c r="B194">
-        <v>-0.0001306291013177564</v>
+        <v>-0.003190407779312211</v>
       </c>
       <c r="C194">
         <v>0.003634006651719757</v>
@@ -2531,7 +2531,7 @@
         <v>44858</v>
       </c>
       <c r="B195">
-        <v>-0.007405019267574475</v>
+        <v>0.002110610158511323</v>
       </c>
       <c r="C195">
         <v>0.1161965483656575</v>
@@ -2542,7 +2542,7 @@
         <v>44865</v>
       </c>
       <c r="B196">
-        <v>0.02159277386400812</v>
+        <v>-0.009966918920999476</v>
       </c>
       <c r="C196">
         <v>0.03831800269415564</v>
@@ -2553,7 +2553,7 @@
         <v>44872</v>
       </c>
       <c r="B197">
-        <v>0.01117628068998949</v>
+        <v>-0.01476734620705715</v>
       </c>
       <c r="C197">
         <v>-0.214427718813715</v>
@@ -2564,7 +2564,7 @@
         <v>44879</v>
       </c>
       <c r="B198">
-        <v>-0.01286196629483069</v>
+        <v>-0.0004001033997511026</v>
       </c>
       <c r="C198">
         <v>-0.01996328446194051</v>
@@ -2575,7 +2575,7 @@
         <v>44886</v>
       </c>
       <c r="B199">
-        <v>0.003774779758195988</v>
+        <v>-0.01096691257141994</v>
       </c>
       <c r="C199">
         <v>-0.001336396875375678</v>
@@ -2586,7 +2586,7 @@
         <v>44893</v>
       </c>
       <c r="B200">
-        <v>-0.005391624540619946</v>
+        <v>0.0004210446327234107</v>
       </c>
       <c r="C200">
         <v>0.04249349850653106</v>
@@ -2597,7 +2597,7 @@
         <v>44900</v>
       </c>
       <c r="B201">
-        <v>-0.005519772052647823</v>
+        <v>-0.006856675374730856</v>
       </c>
       <c r="C201">
         <v>-0.003739588029423646</v>
@@ -2608,7 +2608,7 @@
         <v>44907</v>
       </c>
       <c r="B202">
-        <v>-0.007495065784810008</v>
+        <v>0.008367656329907512</v>
       </c>
       <c r="C202">
         <v>-0.05255234153821053</v>
@@ -2619,7 +2619,7 @@
         <v>44914</v>
       </c>
       <c r="B203">
-        <v>-0.02854361711334113</v>
+        <v>0.0251781174338033</v>
       </c>
       <c r="C203">
         <v>0.01895202258272577</v>
@@ -2630,7 +2630,7 @@
         <v>44921</v>
       </c>
       <c r="B204">
-        <v>0.01122535429477741</v>
+        <v>0.0007124104755783546</v>
       </c>
       <c r="C204">
         <v>-0.0165449605359177</v>
@@ -2641,7 +2641,7 @@
         <v>44928</v>
       </c>
       <c r="B205">
-        <v>0.008670049421654901</v>
+        <v>-0.006029552317028211</v>
       </c>
       <c r="C205">
         <v>0.03347392515956926</v>
@@ -2652,7 +2652,7 @@
         <v>44935</v>
       </c>
       <c r="B206">
-        <v>0.01826934562546014</v>
+        <v>-0.01712550520345879</v>
       </c>
       <c r="C206">
         <v>0.1591072830916589</v>
@@ -2663,7 +2663,7 @@
         <v>44942</v>
       </c>
       <c r="B207">
-        <v>-0.01726426161274148</v>
+        <v>0.01432108506544377</v>
       </c>
       <c r="C207">
         <v>0.1242578702655175</v>
@@ -2674,7 +2674,7 @@
         <v>44949</v>
       </c>
       <c r="B208">
-        <v>0.01225880534953996</v>
+        <v>-0.01550961143570084</v>
       </c>
       <c r="C208">
         <v>0.01580202474477388</v>
@@ -2685,7 +2685,7 @@
         <v>44956</v>
       </c>
       <c r="B209">
-        <v>-0.0234126379301852</v>
+        <v>0.01009191233556624</v>
       </c>
       <c r="C209">
         <v>0.02336183884961307</v>
@@ -2696,7 +2696,7 @@
         <v>44963</v>
       </c>
       <c r="B210">
-        <v>-0.01471059392801155</v>
+        <v>0.002768268525354374</v>
       </c>
       <c r="C210">
         <v>-0.08129243492347538</v>
@@ -2707,7 +2707,7 @@
         <v>44970</v>
       </c>
       <c r="B211">
-        <v>-0.007923321602928652</v>
+        <v>0.00468977908363149</v>
       </c>
       <c r="C211">
         <v>0.1378515158873512</v>
@@ -2718,7 +2718,7 @@
         <v>44977</v>
       </c>
       <c r="B212">
-        <v>0.01322605241919162</v>
+        <v>-0.006930562886596606</v>
       </c>
       <c r="C212">
         <v>-0.06035469456905018</v>
@@ -2729,7 +2729,7 @@
         <v>44984</v>
       </c>
       <c r="B213">
-        <v>-0.01212750701497108</v>
+        <v>-0.0019460066053782</v>
       </c>
       <c r="C213">
         <v>-0.03535470525676154</v>
@@ -2740,7 +2740,7 @@
         <v>44991</v>
       </c>
       <c r="B214">
-        <v>0.001941238897959241</v>
+        <v>-0.00498498865315968</v>
       </c>
       <c r="C214">
         <v>-0.09394224883495761</v>
@@ -2751,7 +2751,7 @@
         <v>44998</v>
       </c>
       <c r="B215">
-        <v>-0.04062893884769964</v>
+        <v>0.02945457337215066</v>
       </c>
       <c r="C215">
         <v>0.2846458753870937</v>
@@ -2762,7 +2762,7 @@
         <v>45005</v>
       </c>
       <c r="B216">
-        <v>-0.02952397753187376</v>
+        <v>0.02410105758332776</v>
       </c>
       <c r="C216">
         <v>0.001847435941032094</v>
@@ -2773,7 +2773,7 @@
         <v>45012</v>
       </c>
       <c r="B217">
-        <v>-0.005684706453459275</v>
+        <v>0.002729912519809141</v>
       </c>
       <c r="C217">
         <v>0.05101360221729201</v>
@@ -2784,7 +2784,7 @@
         <v>45019</v>
       </c>
       <c r="B218">
-        <v>0.00960924085279264</v>
+        <v>-0.02272344720821452</v>
       </c>
       <c r="C218">
         <v>-0.003020405158345452</v>
@@ -2795,7 +2795,7 @@
         <v>45026</v>
       </c>
       <c r="B219">
-        <v>-0.01799470758584753</v>
+        <v>0.01302368650826509</v>
       </c>
       <c r="C219">
         <v>0.0984756225136254</v>
@@ -2806,7 +2806,7 @@
         <v>45033</v>
       </c>
       <c r="B220">
-        <v>0.00629460957805111</v>
+        <v>-0.01135933969756356</v>
       </c>
       <c r="C220">
         <v>-0.1123170541185573</v>
@@ -2817,7 +2817,7 @@
         <v>45040</v>
       </c>
       <c r="B221">
-        <v>-0.002702335398806819</v>
+        <v>-0.001214275225160274</v>
       </c>
       <c r="C221">
         <v>0.05956923513124313</v>
@@ -2828,7 +2828,7 @@
         <v>45047</v>
       </c>
       <c r="B222">
-        <v>0.004011881766391057</v>
+        <v>-0.006001742921542534</v>
       </c>
       <c r="C222">
         <v>0.01775694441995879</v>
@@ -2839,7 +2839,7 @@
         <v>45054</v>
       </c>
       <c r="B223">
-        <v>-0.01803198674042346</v>
+        <v>0.02345298739342888</v>
       </c>
       <c r="C223">
         <v>-0.1036428359015039</v>
@@ -2850,7 +2850,7 @@
         <v>45061</v>
       </c>
       <c r="B224">
-        <v>-0.00904490217465987</v>
+        <v>0.0001877629510241233</v>
       </c>
       <c r="C224">
         <v>0.01641124015245676</v>
@@ -2861,7 +2861,7 @@
         <v>45068</v>
       </c>
       <c r="B225">
-        <v>0.009812211395495167</v>
+        <v>-0.0004014711132176727</v>
       </c>
       <c r="C225">
         <v>0.001587843348000106</v>
@@ -2872,7 +2872,7 @@
         <v>45075</v>
       </c>
       <c r="B226">
-        <v>-0.005749286686642667</v>
+        <v>0.002260855685815907</v>
       </c>
       <c r="C226">
         <v>0.02557556828810137</v>
@@ -2883,7 +2883,7 @@
         <v>45082</v>
       </c>
       <c r="B227">
-        <v>-0.009931036882901804</v>
+        <v>0.01489455158581198</v>
       </c>
       <c r="C227">
         <v>-0.03627967882352556</v>
@@ -2894,7 +2894,7 @@
         <v>45089</v>
       </c>
       <c r="B228">
-        <v>0.003113646635335992</v>
+        <v>-0.005421830911673651</v>
       </c>
       <c r="C228">
         <v>-0.02507363790127104</v>
@@ -2905,7 +2905,7 @@
         <v>45096</v>
       </c>
       <c r="B229">
-        <v>-0.008458887108275581</v>
+        <v>0.007878479330043642</v>
       </c>
       <c r="C229">
         <v>0.1518652606308846</v>
@@ -2916,7 +2916,7 @@
         <v>45103</v>
       </c>
       <c r="B230">
-        <v>-0.006469893764023245</v>
+        <v>0.0003537293764444612</v>
       </c>
       <c r="C230">
         <v>-0.003223295143951366</v>
@@ -2927,7 +2927,7 @@
         <v>45110</v>
       </c>
       <c r="B231">
-        <v>-0.006854759463196334</v>
+        <v>-0.00337913259747263</v>
       </c>
       <c r="C231">
         <v>-0.01142402417358912</v>
@@ -2938,7 +2938,7 @@
         <v>45117</v>
       </c>
       <c r="B232">
-        <v>-0.008127756251198425</v>
+        <v>0.005838764650498746</v>
       </c>
       <c r="C232">
         <v>0.005615057021677972</v>
@@ -2949,7 +2949,7 @@
         <v>45124</v>
       </c>
       <c r="B233">
-        <v>0.009858361415878217</v>
+        <v>-0.0103704133884485</v>
       </c>
       <c r="C233">
         <v>-0.008602636273403186</v>
@@ -2960,7 +2960,7 @@
         <v>45131</v>
       </c>
       <c r="B234">
-        <v>-0.0146311015316604</v>
+        <v>-0.008337429637292549</v>
       </c>
       <c r="C234">
         <v>-0.01493081153292308</v>
@@ -2971,7 +2971,7 @@
         <v>45138</v>
       </c>
       <c r="B235">
-        <v>-0.01786885273250494</v>
+        <v>0.0051800741346372</v>
       </c>
       <c r="C235">
         <v>-0.01673653157964128</v>
@@ -2982,7 +2982,7 @@
         <v>45145</v>
       </c>
       <c r="B236">
-        <v>-0.007186231842807485</v>
+        <v>0.00260821794848521</v>
       </c>
       <c r="C236">
         <v>0.01059515915522047</v>
@@ -2993,7 +2993,7 @@
         <v>45152</v>
       </c>
       <c r="B237">
-        <v>0.005066594767341407</v>
+        <v>-0.003528198577490428</v>
       </c>
       <c r="C237">
         <v>-0.1106418705368375</v>
@@ -3004,7 +3004,7 @@
         <v>45159</v>
       </c>
       <c r="B238">
-        <v>-0.02302015154563624</v>
+        <v>0.009618821627999732</v>
       </c>
       <c r="C238">
         <v>-0.003147181826986922</v>
@@ -3015,7 +3015,7 @@
         <v>45166</v>
       </c>
       <c r="B239">
-        <v>0.01079795303704257</v>
+        <v>0.003980384185286785</v>
       </c>
       <c r="C239">
         <v>-0.01024084274247861</v>
@@ -3026,7 +3026,7 @@
         <v>45173</v>
       </c>
       <c r="B240">
-        <v>0.004955842479970662</v>
+        <v>-0.003924162830725531</v>
       </c>
       <c r="C240">
         <v>0.005740603098584707</v>
@@ -3037,7 +3037,7 @@
         <v>45180</v>
       </c>
       <c r="B241">
-        <v>-0.001747380834959174</v>
+        <v>0.004511646504791005</v>
       </c>
       <c r="C241">
         <v>0.01274186625648444</v>
@@ -3048,7 +3048,7 @@
         <v>45187</v>
       </c>
       <c r="B242">
-        <v>-0.0002069509452636495</v>
+        <v>-0.005007528503994156</v>
       </c>
       <c r="C242">
         <v>-0.001113844958375187</v>
@@ -3059,7 +3059,7 @@
         <v>45194</v>
       </c>
       <c r="B243">
-        <v>0.006463239515190119</v>
+        <v>-0.003693548270115245</v>
       </c>
       <c r="C243">
         <v>0.02271213062810684</v>
@@ -3070,7 +3070,7 @@
         <v>45201</v>
       </c>
       <c r="B244">
-        <v>-0.01041984315372263</v>
+        <v>0.006292071771328806</v>
       </c>
       <c r="C244">
         <v>0.02481104394966849</v>
@@ -3081,7 +3081,7 @@
         <v>45208</v>
       </c>
       <c r="B245">
-        <v>-0.01649981658589487</v>
+        <v>0.01602595795838005</v>
       </c>
       <c r="C245">
         <v>-0.04651335784901744</v>
@@ -3092,7 +3092,7 @@
         <v>45215</v>
       </c>
       <c r="B246">
-        <v>-0.02284069580649685</v>
+        <v>0.02195386391255613</v>
       </c>
       <c r="C246">
         <v>0.08396160347651005</v>
@@ -3103,7 +3103,7 @@
         <v>45222</v>
       </c>
       <c r="B247">
-        <v>-0.03180701189832188</v>
+        <v>0.03578985443999248</v>
       </c>
       <c r="C247">
         <v>0.1292751054647627</v>
@@ -3114,7 +3114,7 @@
         <v>45229</v>
       </c>
       <c r="B248">
-        <v>0.01605959865155519</v>
+        <v>-0.005963936291636375</v>
       </c>
       <c r="C248">
         <v>0.02834678982251204</v>
@@ -3125,7 +3125,7 @@
         <v>45236</v>
       </c>
       <c r="B249">
-        <v>0.03328634428103488</v>
+        <v>-0.02964755520653766</v>
       </c>
       <c r="C249">
         <v>0.08233435002238543</v>
@@ -3136,7 +3136,7 @@
         <v>45243</v>
       </c>
       <c r="B250">
-        <v>-0.06394174925712687</v>
+        <v>0.01847243210349704</v>
       </c>
       <c r="C250">
         <v>-0.02585198610892725</v>
@@ -3147,7 +3147,7 @@
         <v>45250</v>
       </c>
       <c r="B251">
-        <v>-0.02499129673748291</v>
+        <v>0.0107990433317671</v>
       </c>
       <c r="C251">
         <v>0.04691322060143599</v>
@@ -3158,7 +3158,7 @@
         <v>45257</v>
       </c>
       <c r="B252">
-        <v>-0.01755869029667937</v>
+        <v>0.01107887143530394</v>
       </c>
       <c r="C252">
         <v>0.01533641941080166</v>
@@ -3169,7 +3169,7 @@
         <v>45264</v>
       </c>
       <c r="B253">
-        <v>-0.004649674338948549</v>
+        <v>0.002777699579783625</v>
       </c>
       <c r="C253">
         <v>0.1448179358359638</v>
@@ -3180,7 +3180,7 @@
         <v>45271</v>
       </c>
       <c r="B254">
-        <v>0.009917390614592313</v>
+        <v>-0.002553145887073692</v>
       </c>
       <c r="C254">
         <v>-0.04814342789607884</v>
@@ -3191,7 +3191,7 @@
         <v>45278</v>
       </c>
       <c r="B255">
-        <v>-0.008128066324707511</v>
+        <v>0.01964306801371684</v>
       </c>
       <c r="C255">
         <v>0.03561345601589161</v>
@@ -3202,7 +3202,7 @@
         <v>45285</v>
       </c>
       <c r="B256">
-        <v>0.02892846679778722</v>
+        <v>-0.01339661596116116</v>
       </c>
       <c r="C256">
         <v>-0.03059179351965802</v>
@@ -3213,7 +3213,7 @@
         <v>45292</v>
       </c>
       <c r="B257">
-        <v>0.01896551699729562</v>
+        <v>-0.0003916287808256244</v>
       </c>
       <c r="C257">
         <v>0.02089818218301831</v>
@@ -3224,7 +3224,7 @@
         <v>45299</v>
       </c>
       <c r="B258">
-        <v>0.01591633786277508</v>
+        <v>-0.0003339737767613232</v>
       </c>
       <c r="C258">
         <v>0.02258705483664114</v>
@@ -3235,7 +3235,7 @@
         <v>45306</v>
       </c>
       <c r="B259">
-        <v>-0.009067529064589928</v>
+        <v>0.0003626309754481555</v>
       </c>
       <c r="C259">
         <v>-0.03508921058856629</v>
@@ -3246,7 +3246,7 @@
         <v>45313</v>
       </c>
       <c r="B260">
-        <v>-0.01541231850644383</v>
+        <v>0.00230754791484622</v>
       </c>
       <c r="C260">
         <v>-0.01594264957319458</v>
@@ -3257,7 +3257,7 @@
         <v>45320</v>
       </c>
       <c r="B261">
-        <v>0.01820390572772376</v>
+        <v>0.003409643152741931</v>
       </c>
       <c r="C261">
         <v>0.02219249583575067</v>
@@ -3268,7 +3268,7 @@
         <v>45327</v>
       </c>
       <c r="B262">
-        <v>-0.004609020478507574</v>
+        <v>-0.0008816159318385457</v>
       </c>
       <c r="C262">
         <v>0.09592606980994178</v>
@@ -3279,7 +3279,7 @@
         <v>45334</v>
       </c>
       <c r="B263">
-        <v>-0.002105950435552499</v>
+        <v>0.0007500093001339414</v>
       </c>
       <c r="C263">
         <v>0.09865194714623815</v>
@@ -3290,7 +3290,7 @@
         <v>45341</v>
       </c>
       <c r="B264">
-        <v>0.01551686512821329</v>
+        <v>-0.02471322462961761</v>
       </c>
       <c r="C264">
         <v>-3.273451302721053e-05</v>
@@ -3301,7 +3301,7 @@
         <v>45348</v>
       </c>
       <c r="B265">
-        <v>0.003949540049488894</v>
+        <v>0.00965349461587129</v>
       </c>
       <c r="C265">
         <v>0.2110065963347592</v>
@@ -3312,7 +3312,7 @@
         <v>45355</v>
       </c>
       <c r="B266">
-        <v>-0.02922654784476161</v>
+        <v>0.04313019158555798</v>
       </c>
       <c r="C266">
         <v>0.1111221800416156</v>
@@ -3323,7 +3323,7 @@
         <v>45362</v>
       </c>
       <c r="B267">
-        <v>0.0648090659728308</v>
+        <v>-0.008461175938483355</v>
       </c>
       <c r="C267">
         <v>0.02271012846703813</v>
